--- a/public/data/endangered.xlsx
+++ b/public/data/endangered.xlsx
@@ -8279,17 +8279,17 @@
   </sheetPr>
   <dimension ref="A1:E2471"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="33" zoomScaleNormal="33" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:D"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A434" colorId="64" zoomScale="33" zoomScaleNormal="33" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C474" activeCellId="0" sqref="C474:D687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="216.255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.8367346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.0663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.09183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16331,6 +16331,12 @@
       <c r="B474" s="0" t="s">
         <v>370</v>
       </c>
+      <c r="C474" s="0" t="n">
+        <v>0.576503</v>
+      </c>
+      <c r="D474" s="0" t="n">
+        <v>37.8398895</v>
+      </c>
       <c r="E474" s="0" t="s">
         <v>10</v>
       </c>
@@ -16342,6 +16348,12 @@
       <c r="B475" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C475" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D475" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E475" s="0" t="s">
         <v>10</v>
       </c>
@@ -16353,6 +16365,12 @@
       <c r="B476" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C476" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D476" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E476" s="0" t="s">
         <v>24</v>
       </c>
@@ -16364,6 +16382,12 @@
       <c r="B477" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="C477" s="0" t="n">
+        <v>18.6507492</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>104.1529388</v>
+      </c>
       <c r="E477" s="0" t="s">
         <v>13</v>
       </c>
@@ -16375,6 +16399,12 @@
       <c r="B478" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C478" s="0" t="n">
+        <v>62.8329086</v>
+      </c>
+      <c r="D478" s="0" t="n">
+        <v>-95.9133224</v>
+      </c>
       <c r="E478" s="0" t="s">
         <v>13</v>
       </c>
@@ -16386,6 +16416,12 @@
       <c r="B479" s="0" t="s">
         <v>605</v>
       </c>
+      <c r="C479" s="0" t="n">
+        <v>23.2996693</v>
+      </c>
+      <c r="D479" s="0" t="n">
+        <v>73.3972778</v>
+      </c>
       <c r="E479" s="0" t="s">
         <v>13</v>
       </c>
@@ -16397,6 +16433,12 @@
       <c r="B480" s="0" t="s">
         <v>607</v>
       </c>
+      <c r="C480" s="0" t="n">
+        <v>62.6749725</v>
+      </c>
+      <c r="D480" s="0" t="n">
+        <v>16.7980595</v>
+      </c>
       <c r="E480" s="0" t="s">
         <v>13</v>
       </c>
@@ -16408,6 +16450,12 @@
       <c r="B481" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C481" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E481" s="0" t="s">
         <v>24</v>
       </c>
@@ -16419,6 +16467,12 @@
       <c r="B482" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C482" s="0" t="n">
+        <v>3.997607</v>
+      </c>
+      <c r="D482" s="0" t="n">
+        <v>-73.2779694</v>
+      </c>
       <c r="E482" s="0" t="s">
         <v>13</v>
       </c>
@@ -16430,6 +16484,12 @@
       <c r="B483" s="0" t="s">
         <v>288</v>
       </c>
+      <c r="C483" s="0" t="n">
+        <v>29.9232197</v>
+      </c>
+      <c r="D483" s="0" t="n">
+        <v>69.3577423</v>
+      </c>
       <c r="E483" s="0" t="s">
         <v>10</v>
       </c>
@@ -16441,6 +16501,12 @@
       <c r="B484" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C484" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D484" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E484" s="0" t="s">
         <v>7</v>
       </c>
@@ -16452,6 +16518,12 @@
       <c r="B485" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C485" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D485" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E485" s="0" t="s">
         <v>13</v>
       </c>
@@ -16463,6 +16535,12 @@
       <c r="B486" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="C486" s="0" t="n">
+        <v>20.330143</v>
+      </c>
+      <c r="D486" s="0" t="n">
+        <v>96.5218201</v>
+      </c>
       <c r="E486" s="0" t="s">
         <v>7</v>
       </c>
@@ -16474,6 +16552,12 @@
       <c r="B487" s="0" t="s">
         <v>615</v>
       </c>
+      <c r="C487" s="0" t="n">
+        <v>-22.1867523</v>
+      </c>
+      <c r="D487" s="0" t="n">
+        <v>23.8149414</v>
+      </c>
       <c r="E487" s="0" t="s">
         <v>7</v>
       </c>
@@ -16485,6 +16569,12 @@
       <c r="B488" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C488" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D488" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E488" s="0" t="s">
         <v>10</v>
       </c>
@@ -16496,6 +16586,12 @@
       <c r="B489" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C489" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D489" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E489" s="0" t="s">
         <v>10</v>
       </c>
@@ -16507,6 +16603,12 @@
       <c r="B490" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C490" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D490" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E490" s="0" t="s">
         <v>24</v>
       </c>
@@ -16518,6 +16620,12 @@
       <c r="B491" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="C491" s="0" t="n">
+        <v>32.5007782</v>
+      </c>
+      <c r="D491" s="0" t="n">
+        <v>54.2942009</v>
+      </c>
       <c r="E491" s="0" t="s">
         <v>13</v>
       </c>
@@ -16529,6 +16637,12 @@
       <c r="B492" s="0" t="s">
         <v>123</v>
       </c>
+      <c r="C492" s="0" t="n">
+        <v>31.8298397</v>
+      </c>
+      <c r="D492" s="0" t="n">
+        <v>74.6894531</v>
+      </c>
       <c r="E492" s="0" t="s">
         <v>13</v>
       </c>
@@ -16540,6 +16654,12 @@
       <c r="B493" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C493" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D493" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E493" s="0" t="s">
         <v>24</v>
       </c>
@@ -16551,6 +16671,12 @@
       <c r="B494" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C494" s="0" t="n">
+        <v>9.5595055</v>
+      </c>
+      <c r="D494" s="0" t="n">
+        <v>8.0778809</v>
+      </c>
       <c r="E494" s="0" t="s">
         <v>7</v>
       </c>
@@ -16562,6 +16688,12 @@
       <c r="B495" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C495" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D495" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E495" s="0" t="s">
         <v>13</v>
       </c>
@@ -16573,6 +16705,12 @@
       <c r="B496" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C496" s="0" t="n">
+        <v>62.8329086</v>
+      </c>
+      <c r="D496" s="0" t="n">
+        <v>-95.9133224</v>
+      </c>
       <c r="E496" s="0" t="s">
         <v>24</v>
       </c>
@@ -16584,6 +16722,12 @@
       <c r="B497" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C497" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D497" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E497" s="0" t="s">
         <v>13</v>
       </c>
@@ -16595,6 +16739,12 @@
       <c r="B498" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C498" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D498" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E498" s="0" t="s">
         <v>24</v>
       </c>
@@ -16606,6 +16756,12 @@
       <c r="B499" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C499" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D499" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E499" s="0" t="s">
         <v>13</v>
       </c>
@@ -16617,6 +16773,12 @@
       <c r="B500" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C500" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D500" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E500" s="0" t="s">
         <v>13</v>
       </c>
@@ -16628,6 +16790,12 @@
       <c r="B501" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C501" s="0" t="n">
+        <v>3.997607</v>
+      </c>
+      <c r="D501" s="0" t="n">
+        <v>-73.2779694</v>
+      </c>
       <c r="E501" s="0" t="s">
         <v>13</v>
       </c>
@@ -16639,6 +16807,12 @@
       <c r="B502" s="0" t="s">
         <v>76</v>
       </c>
+      <c r="C502" s="0" t="n">
+        <v>-6.3068972</v>
+      </c>
+      <c r="D502" s="0" t="n">
+        <v>34.8539276</v>
+      </c>
       <c r="E502" s="0" t="s">
         <v>13</v>
       </c>
@@ -16650,6 +16824,12 @@
       <c r="B503" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C503" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D503" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E503" s="0" t="s">
         <v>7</v>
       </c>
@@ -16661,6 +16841,12 @@
       <c r="B504" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C504" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D504" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E504" s="0" t="s">
         <v>7</v>
       </c>
@@ -16672,6 +16858,12 @@
       <c r="B505" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C505" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D505" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E505" s="0" t="s">
         <v>10</v>
       </c>
@@ -16683,6 +16875,12 @@
       <c r="B506" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C506" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D506" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E506" s="0" t="s">
         <v>7</v>
       </c>
@@ -16694,6 +16892,12 @@
       <c r="B507" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C507" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D507" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E507" s="0" t="s">
         <v>7</v>
       </c>
@@ -16705,6 +16909,12 @@
       <c r="B508" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C508" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D508" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E508" s="0" t="s">
         <v>13</v>
       </c>
@@ -16716,6 +16926,12 @@
       <c r="B509" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C509" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D509" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E509" s="0" t="s">
         <v>24</v>
       </c>
@@ -16727,6 +16943,12 @@
       <c r="B510" s="0" t="s">
         <v>249</v>
       </c>
+      <c r="C510" s="0" t="n">
+        <v>5.6854768</v>
+      </c>
+      <c r="D510" s="0" t="n">
+        <v>12.7228785</v>
+      </c>
       <c r="E510" s="0" t="s">
         <v>7</v>
       </c>
@@ -16738,6 +16960,12 @@
       <c r="B511" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C511" s="0" t="n">
+        <v>8.6267033</v>
+      </c>
+      <c r="D511" s="0" t="n">
+        <v>39.6375542</v>
+      </c>
       <c r="E511" s="0" t="s">
         <v>24</v>
       </c>
@@ -16749,6 +16977,12 @@
       <c r="B512" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C512" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D512" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E512" s="0" t="s">
         <v>10</v>
       </c>
@@ -16760,6 +16994,12 @@
       <c r="B513" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C513" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D513" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E513" s="0" t="s">
         <v>13</v>
       </c>
@@ -16771,6 +17011,12 @@
       <c r="B514" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C514" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D514" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E514" s="0" t="s">
         <v>13</v>
       </c>
@@ -16782,6 +17028,12 @@
       <c r="B515" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C515" s="0" t="n">
+        <v>62.8329086</v>
+      </c>
+      <c r="D515" s="0" t="n">
+        <v>-95.9133224</v>
+      </c>
       <c r="E515" s="0" t="s">
         <v>24</v>
       </c>
@@ -16793,6 +17045,12 @@
       <c r="B516" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C516" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D516" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E516" s="0" t="s">
         <v>13</v>
       </c>
@@ -16804,6 +17062,12 @@
       <c r="B517" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C517" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D517" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E517" s="0" t="s">
         <v>13</v>
       </c>
@@ -16815,6 +17079,12 @@
       <c r="B518" s="0" t="s">
         <v>288</v>
       </c>
+      <c r="C518" s="0" t="n">
+        <v>29.9232197</v>
+      </c>
+      <c r="D518" s="0" t="n">
+        <v>69.3577423</v>
+      </c>
       <c r="E518" s="0" t="s">
         <v>10</v>
       </c>
@@ -16826,6 +17096,12 @@
       <c r="B519" s="0" t="s">
         <v>648</v>
       </c>
+      <c r="C519" s="0" t="n">
+        <v>35.0331268</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <v>38.4734726</v>
+      </c>
       <c r="E519" s="0" t="s">
         <v>10</v>
       </c>
@@ -16837,6 +17113,12 @@
       <c r="B520" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C520" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D520" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E520" s="0" t="s">
         <v>24</v>
       </c>
@@ -16848,6 +17130,12 @@
       <c r="B521" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C521" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D521" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E521" s="0" t="s">
         <v>24</v>
       </c>
@@ -16859,6 +17147,12 @@
       <c r="B522" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="C522" s="0" t="n">
+        <v>-16.3766842</v>
+      </c>
+      <c r="D522" s="0" t="n">
+        <v>167.5625</v>
+      </c>
       <c r="E522" s="0" t="s">
         <v>13</v>
       </c>
@@ -16870,6 +17164,12 @@
       <c r="B523" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C523" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D523" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E523" s="0" t="s">
         <v>10</v>
       </c>
@@ -16881,6 +17181,12 @@
       <c r="B524" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C524" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D524" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E524" s="0" t="s">
         <v>10</v>
       </c>
@@ -16892,6 +17198,12 @@
       <c r="B525" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="C525" s="0" t="n">
+        <v>-20.0509777</v>
+      </c>
+      <c r="D525" s="0" t="n">
+        <v>165.0738678</v>
+      </c>
       <c r="E525" s="0" t="s">
         <v>24</v>
       </c>
@@ -16903,6 +17215,12 @@
       <c r="B526" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="C526" s="0" t="n">
+        <v>2.549001</v>
+      </c>
+      <c r="D526" s="0" t="n">
+        <v>102.962616</v>
+      </c>
       <c r="E526" s="0" t="s">
         <v>7</v>
       </c>
@@ -16914,6 +17232,12 @@
       <c r="B527" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C527" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D527" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E527" s="0" t="s">
         <v>24</v>
       </c>
@@ -16925,6 +17249,12 @@
       <c r="B528" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C528" s="0" t="n">
+        <v>9.5595055</v>
+      </c>
+      <c r="D528" s="0" t="n">
+        <v>8.0778809</v>
+      </c>
       <c r="E528" s="0" t="s">
         <v>13</v>
       </c>
@@ -16936,6 +17266,12 @@
       <c r="B529" s="0" t="s">
         <v>659</v>
       </c>
+      <c r="C529" s="0" t="n">
+        <v>46.8364792</v>
+      </c>
+      <c r="D529" s="0" t="n">
+        <v>103.0668945</v>
+      </c>
       <c r="E529" s="0" t="s">
         <v>10</v>
       </c>
@@ -16947,6 +17283,12 @@
       <c r="B530" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C530" s="0" t="n">
+        <v>9.5595055</v>
+      </c>
+      <c r="D530" s="0" t="n">
+        <v>8.0778809</v>
+      </c>
       <c r="E530" s="0" t="s">
         <v>7</v>
       </c>
@@ -16958,6 +17300,12 @@
       <c r="B531" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C531" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D531" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E531" s="0" t="s">
         <v>7</v>
       </c>
@@ -16969,6 +17317,12 @@
       <c r="B532" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C532" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D532" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E532" s="0" t="s">
         <v>7</v>
       </c>
@@ -16980,6 +17334,12 @@
       <c r="B533" s="0" t="s">
         <v>664</v>
       </c>
+      <c r="C533" s="0" t="n">
+        <v>41.4643555</v>
+      </c>
+      <c r="D533" s="0" t="n">
+        <v>74.5552216</v>
+      </c>
       <c r="E533" s="0" t="s">
         <v>13</v>
       </c>
@@ -16991,6 +17351,12 @@
       <c r="B534" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C534" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E534" s="0" t="s">
         <v>13</v>
       </c>
@@ -17002,6 +17368,12 @@
       <c r="B535" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="C535" s="0" t="n">
+        <v>11.1126661</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>122.5094757</v>
+      </c>
       <c r="E535" s="0" t="s">
         <v>24</v>
       </c>
@@ -17013,6 +17385,12 @@
       <c r="B536" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C536" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D536" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E536" s="0" t="s">
         <v>7</v>
       </c>
@@ -17024,6 +17402,12 @@
       <c r="B537" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C537" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D537" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E537" s="0" t="s">
         <v>7</v>
       </c>
@@ -17035,6 +17419,12 @@
       <c r="B538" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C538" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D538" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E538" s="0" t="s">
         <v>24</v>
       </c>
@@ -17046,6 +17436,12 @@
       <c r="B539" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C539" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D539" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E539" s="0" t="s">
         <v>7</v>
       </c>
@@ -17057,6 +17453,12 @@
       <c r="B540" s="0" t="s">
         <v>352</v>
       </c>
+      <c r="C540" s="0" t="n">
+        <v>27.4168797</v>
+      </c>
+      <c r="D540" s="0" t="n">
+        <v>90.434761</v>
+      </c>
       <c r="E540" s="0" t="s">
         <v>24</v>
       </c>
@@ -17068,6 +17470,12 @@
       <c r="B541" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="C541" s="0" t="n">
+        <v>32.5007782</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>54.2942009</v>
+      </c>
       <c r="E541" s="0" t="s">
         <v>13</v>
       </c>
@@ -17079,6 +17487,12 @@
       <c r="B542" s="0" t="s">
         <v>352</v>
       </c>
+      <c r="C542" s="0" t="n">
+        <v>27.4168797</v>
+      </c>
+      <c r="D542" s="0" t="n">
+        <v>90.434761</v>
+      </c>
       <c r="E542" s="0" t="s">
         <v>24</v>
       </c>
@@ -17090,6 +17504,12 @@
       <c r="B543" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C543" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D543" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E543" s="0" t="s">
         <v>7</v>
       </c>
@@ -17101,6 +17521,12 @@
       <c r="B544" s="0" t="s">
         <v>676</v>
       </c>
+      <c r="C544" s="0" t="n">
+        <v>49.7391052</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>15.331501</v>
+      </c>
       <c r="E544" s="0" t="s">
         <v>24</v>
       </c>
@@ -17112,6 +17538,12 @@
       <c r="B545" s="0" t="s">
         <v>678</v>
       </c>
+      <c r="C545" s="0" t="n">
+        <v>56.01282</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>8.99423</v>
+      </c>
       <c r="E545" s="0" t="s">
         <v>13</v>
       </c>
@@ -17123,6 +17555,12 @@
       <c r="B546" s="0" t="s">
         <v>238</v>
       </c>
+      <c r="C546" s="0" t="n">
+        <v>16.9404297</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>106.8164291</v>
+      </c>
       <c r="E546" s="0" t="s">
         <v>13</v>
       </c>
@@ -17134,6 +17572,12 @@
       <c r="B547" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C547" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E547" s="0" t="s">
         <v>10</v>
       </c>
@@ -17145,6 +17589,12 @@
       <c r="B548" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C548" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E548" s="0" t="s">
         <v>24</v>
       </c>
@@ -17156,6 +17606,12 @@
       <c r="B549" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C549" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E549" s="0" t="s">
         <v>13</v>
       </c>
@@ -17167,6 +17623,12 @@
       <c r="B550" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C550" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E550" s="0" t="s">
         <v>7</v>
       </c>
@@ -17178,6 +17640,12 @@
       <c r="B551" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C551" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E551" s="0" t="s">
         <v>13</v>
       </c>
@@ -17189,6 +17657,12 @@
       <c r="B552" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C552" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E552" s="0" t="s">
         <v>13</v>
       </c>
@@ -17200,6 +17674,12 @@
       <c r="B553" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C553" s="0" t="n">
+        <v>62.8329086</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>-95.9133224</v>
+      </c>
       <c r="E553" s="0" t="s">
         <v>24</v>
       </c>
@@ -17211,6 +17691,12 @@
       <c r="B554" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C554" s="0" t="n">
+        <v>62.8329086</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>-95.9133224</v>
+      </c>
       <c r="E554" s="0" t="s">
         <v>10</v>
       </c>
@@ -17222,6 +17708,12 @@
       <c r="B555" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C555" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E555" s="0" t="s">
         <v>24</v>
       </c>
@@ -17233,6 +17725,12 @@
       <c r="B556" s="0" t="s">
         <v>690</v>
       </c>
+      <c r="C556" s="0" t="n">
+        <v>48.9265633</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>31.4757824</v>
+      </c>
       <c r="E556" s="0" t="s">
         <v>24</v>
       </c>
@@ -17244,6 +17742,12 @@
       <c r="B557" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C557" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E557" s="0" t="s">
         <v>24</v>
       </c>
@@ -17255,6 +17759,12 @@
       <c r="B558" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C558" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D558" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E558" s="0" t="s">
         <v>10</v>
       </c>
@@ -17266,6 +17776,12 @@
       <c r="B559" s="0" t="s">
         <v>694</v>
       </c>
+      <c r="C559" s="0" t="n">
+        <v>12.1158628</v>
+      </c>
+      <c r="D559" s="0" t="n">
+        <v>-14.7481375</v>
+      </c>
       <c r="E559" s="0" t="s">
         <v>24</v>
       </c>
@@ -17277,6 +17793,12 @@
       <c r="B560" s="0" t="s">
         <v>696</v>
       </c>
+      <c r="C560" s="0" t="n">
+        <v>37.2550964</v>
+      </c>
+      <c r="D560" s="0" t="n">
+        <v>-119.6175232</v>
+      </c>
       <c r="E560" s="0" t="s">
         <v>10</v>
       </c>
@@ -17288,6 +17810,12 @@
       <c r="B561" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C561" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D561" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E561" s="0" t="s">
         <v>10</v>
       </c>
@@ -17299,6 +17827,12 @@
       <c r="B562" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C562" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D562" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E562" s="0" t="s">
         <v>10</v>
       </c>
@@ -17310,6 +17844,12 @@
       <c r="B563" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C563" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D563" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E563" s="0" t="s">
         <v>24</v>
       </c>
@@ -17321,6 +17861,12 @@
       <c r="B564" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="C564" s="0" t="n">
+        <v>-16.3766842</v>
+      </c>
+      <c r="D564" s="0" t="n">
+        <v>167.5625</v>
+      </c>
       <c r="E564" s="0" t="s">
         <v>24</v>
       </c>
@@ -17332,6 +17878,12 @@
       <c r="B565" s="0" t="s">
         <v>249</v>
       </c>
+      <c r="C565" s="0" t="n">
+        <v>5.6854768</v>
+      </c>
+      <c r="D565" s="0" t="n">
+        <v>12.7228785</v>
+      </c>
       <c r="E565" s="0" t="s">
         <v>10</v>
       </c>
@@ -17343,6 +17895,12 @@
       <c r="B566" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C566" s="0" t="n">
+        <v>3.997607</v>
+      </c>
+      <c r="D566" s="0" t="n">
+        <v>-73.2779694</v>
+      </c>
       <c r="E566" s="0" t="s">
         <v>24</v>
       </c>
@@ -17354,6 +17912,12 @@
       <c r="B567" s="0" t="s">
         <v>394</v>
       </c>
+      <c r="C567" s="0" t="n">
+        <v>8.6462479</v>
+      </c>
+      <c r="D567" s="0" t="n">
+        <v>-80.506073</v>
+      </c>
       <c r="E567" s="0" t="s">
         <v>24</v>
       </c>
@@ -17365,6 +17929,12 @@
       <c r="B568" s="0" t="s">
         <v>705</v>
       </c>
+      <c r="C568" s="0" t="n">
+        <v>4.0699911</v>
+      </c>
+      <c r="D568" s="0" t="n">
+        <v>-53.1683083</v>
+      </c>
       <c r="E568" s="0" t="s">
         <v>10</v>
       </c>
@@ -17376,6 +17946,12 @@
       <c r="B569" s="0" t="s">
         <v>707</v>
       </c>
+      <c r="C569" s="0" t="n">
+        <v>44.8083687</v>
+      </c>
+      <c r="D569" s="0" t="n">
+        <v>10.9129295</v>
+      </c>
       <c r="E569" s="0" t="s">
         <v>13</v>
       </c>
@@ -17387,6 +17963,12 @@
       <c r="B570" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C570" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D570" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E570" s="0" t="s">
         <v>13</v>
       </c>
@@ -17398,6 +17980,12 @@
       <c r="B571" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="C571" s="0" t="n">
+        <v>20.330143</v>
+      </c>
+      <c r="D571" s="0" t="n">
+        <v>96.5218201</v>
+      </c>
       <c r="E571" s="0" t="s">
         <v>7</v>
       </c>
@@ -17409,6 +17997,12 @@
       <c r="B572" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C572" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D572" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E572" s="0" t="s">
         <v>24</v>
       </c>
@@ -17420,6 +18014,12 @@
       <c r="B573" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C573" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D573" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E573" s="0" t="s">
         <v>24</v>
       </c>
@@ -17431,6 +18031,12 @@
       <c r="B574" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C574" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D574" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E574" s="0" t="s">
         <v>24</v>
       </c>
@@ -17442,6 +18048,12 @@
       <c r="B575" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="C575" s="0" t="n">
+        <v>36.5530853</v>
+      </c>
+      <c r="D575" s="0" t="n">
+        <v>103.9754333</v>
+      </c>
       <c r="E575" s="0" t="s">
         <v>13</v>
       </c>
@@ -17453,6 +18065,12 @@
       <c r="B576" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C576" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D576" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E576" s="0" t="s">
         <v>13</v>
       </c>
@@ -17464,6 +18082,12 @@
       <c r="B577" s="0" t="s">
         <v>716</v>
       </c>
+      <c r="C577" s="0" t="n">
+        <v>-13.73393</v>
+      </c>
+      <c r="D577" s="0" t="n">
+        <v>-76.22035</v>
+      </c>
       <c r="E577" s="0" t="s">
         <v>13</v>
       </c>
@@ -17475,6 +18099,12 @@
       <c r="B578" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C578" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D578" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E578" s="0" t="s">
         <v>10</v>
       </c>
@@ -17486,6 +18116,12 @@
       <c r="B579" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C579" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D579" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E579" s="0" t="s">
         <v>10</v>
       </c>
@@ -17497,6 +18133,12 @@
       <c r="B580" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="C580" s="0" t="n">
+        <v>36.5530853</v>
+      </c>
+      <c r="D580" s="0" t="n">
+        <v>103.9754333</v>
+      </c>
       <c r="E580" s="0" t="s">
         <v>10</v>
       </c>
@@ -17508,6 +18150,12 @@
       <c r="B581" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C581" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D581" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E581" s="0" t="s">
         <v>10</v>
       </c>
@@ -17519,6 +18167,12 @@
       <c r="B582" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C582" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D582" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E582" s="0" t="s">
         <v>10</v>
       </c>
@@ -17530,6 +18184,12 @@
       <c r="B583" s="0" t="s">
         <v>723</v>
       </c>
+      <c r="C583" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D583" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E583" s="0" t="s">
         <v>10</v>
       </c>
@@ -17541,6 +18201,12 @@
       <c r="B584" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C584" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D584" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E584" s="0" t="s">
         <v>13</v>
       </c>
@@ -17552,6 +18218,12 @@
       <c r="B585" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="C585" s="0" t="n">
+        <v>-20.0509777</v>
+      </c>
+      <c r="D585" s="0" t="n">
+        <v>165.0738678</v>
+      </c>
       <c r="E585" s="0" t="s">
         <v>24</v>
       </c>
@@ -17563,6 +18235,12 @@
       <c r="B586" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="C586" s="0" t="n">
+        <v>-20.0509777</v>
+      </c>
+      <c r="D586" s="0" t="n">
+        <v>165.0738678</v>
+      </c>
       <c r="E586" s="0" t="s">
         <v>24</v>
       </c>
@@ -17574,6 +18252,12 @@
       <c r="B587" s="0" t="s">
         <v>190</v>
       </c>
+      <c r="C587" s="0" t="n">
+        <v>-9.5481129</v>
+      </c>
+      <c r="D587" s="0" t="n">
+        <v>160.0193024</v>
+      </c>
       <c r="E587" s="0" t="s">
         <v>24</v>
       </c>
@@ -17585,6 +18269,12 @@
       <c r="B588" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="C588" s="0" t="n">
+        <v>11.1126661</v>
+      </c>
+      <c r="D588" s="0" t="n">
+        <v>122.5094757</v>
+      </c>
       <c r="E588" s="0" t="s">
         <v>10</v>
       </c>
@@ -17596,6 +18286,12 @@
       <c r="B589" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C589" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D589" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E589" s="0" t="s">
         <v>10</v>
       </c>
@@ -17607,6 +18303,12 @@
       <c r="B590" s="0" t="s">
         <v>329</v>
       </c>
+      <c r="C590" s="0" t="n">
+        <v>15.3676529</v>
+      </c>
+      <c r="D590" s="0" t="n">
+        <v>18.6675816</v>
+      </c>
       <c r="E590" s="0" t="s">
         <v>10</v>
       </c>
@@ -17618,6 +18320,12 @@
       <c r="B591" s="0" t="s">
         <v>732</v>
       </c>
+      <c r="C591" s="0" t="n">
+        <v>62.0095596</v>
+      </c>
+      <c r="D591" s="0" t="n">
+        <v>-6.8182549</v>
+      </c>
       <c r="E591" s="0" t="s">
         <v>24</v>
       </c>
@@ -17629,6 +18337,12 @@
       <c r="B592" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C592" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D592" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E592" s="0" t="s">
         <v>24</v>
       </c>
@@ -17640,6 +18354,12 @@
       <c r="B593" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C593" s="0" t="n">
+        <v>16.0857849</v>
+      </c>
+      <c r="D593" s="0" t="n">
+        <v>30.0873909</v>
+      </c>
       <c r="E593" s="0" t="s">
         <v>24</v>
       </c>
@@ -17651,6 +18371,12 @@
       <c r="B594" s="0" t="s">
         <v>736</v>
       </c>
+      <c r="C594" s="0" t="n">
+        <v>29.1405907</v>
+      </c>
+      <c r="D594" s="0" t="n">
+        <v>-8.9533882</v>
+      </c>
       <c r="E594" s="0" t="s">
         <v>24</v>
       </c>
@@ -17662,6 +18388,12 @@
       <c r="B595" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C595" s="0" t="n">
+        <v>23.9090939</v>
+      </c>
+      <c r="D595" s="0" t="n">
+        <v>-102.6334</v>
+      </c>
       <c r="E595" s="0" t="s">
         <v>24</v>
       </c>
@@ -17673,6 +18405,12 @@
       <c r="B596" s="0" t="s">
         <v>329</v>
       </c>
+      <c r="C596" s="0" t="n">
+        <v>15.3676529</v>
+      </c>
+      <c r="D596" s="0" t="n">
+        <v>18.6675816</v>
+      </c>
       <c r="E596" s="0" t="s">
         <v>10</v>
       </c>
@@ -17684,6 +18422,12 @@
       <c r="B597" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C597" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D597" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E597" s="0" t="s">
         <v>7</v>
       </c>
@@ -17695,6 +18439,12 @@
       <c r="B598" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C598" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D598" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E598" s="0" t="s">
         <v>10</v>
       </c>
@@ -17706,6 +18456,12 @@
       <c r="B599" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C599" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D599" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E599" s="0" t="s">
         <v>7</v>
       </c>
@@ -17717,6 +18473,12 @@
       <c r="B600" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C600" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D600" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E600" s="0" t="s">
         <v>7</v>
       </c>
@@ -17728,6 +18490,12 @@
       <c r="B601" s="0" t="s">
         <v>744</v>
       </c>
+      <c r="C601" s="0" t="n">
+        <v>46.23812</v>
+      </c>
+      <c r="D601" s="0" t="n">
+        <v>6.85147</v>
+      </c>
       <c r="E601" s="0" t="s">
         <v>10</v>
       </c>
@@ -17739,6 +18507,12 @@
       <c r="B602" s="0" t="s">
         <v>746</v>
       </c>
+      <c r="C602" s="0" t="n">
+        <v>46.23812</v>
+      </c>
+      <c r="D602" s="0" t="n">
+        <v>6.85147</v>
+      </c>
       <c r="E602" s="0" t="s">
         <v>13</v>
       </c>
@@ -17750,6 +18524,12 @@
       <c r="B603" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C603" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D603" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E603" s="0" t="s">
         <v>13</v>
       </c>
@@ -17761,6 +18541,12 @@
       <c r="B604" s="0" t="s">
         <v>166</v>
       </c>
+      <c r="C604" s="0" t="n">
+        <v>-20.0509777</v>
+      </c>
+      <c r="D604" s="0" t="n">
+        <v>165.0738678</v>
+      </c>
       <c r="E604" s="0" t="s">
         <v>24</v>
       </c>
@@ -17772,6 +18558,12 @@
       <c r="B605" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C605" s="0" t="n">
+        <v>9.5595055</v>
+      </c>
+      <c r="D605" s="0" t="n">
+        <v>8.0778809</v>
+      </c>
       <c r="E605" s="0" t="s">
         <v>10</v>
       </c>
@@ -17783,6 +18575,12 @@
       <c r="B606" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C606" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D606" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E606" s="0" t="s">
         <v>7</v>
       </c>
@@ -17794,6 +18592,12 @@
       <c r="B607" s="0" t="s">
         <v>329</v>
       </c>
+      <c r="C607" s="0" t="n">
+        <v>15.3676529</v>
+      </c>
+      <c r="D607" s="0" t="n">
+        <v>18.6675816</v>
+      </c>
       <c r="E607" s="0" t="s">
         <v>13</v>
       </c>
@@ -17805,6 +18609,12 @@
       <c r="B608" s="0" t="s">
         <v>753</v>
       </c>
+      <c r="C608" s="0" t="n">
+        <v>47.2037048</v>
+      </c>
+      <c r="D608" s="0" t="n">
+        <v>28.4683437</v>
+      </c>
       <c r="E608" s="0" t="s">
         <v>13</v>
       </c>
@@ -17816,6 +18626,12 @@
       <c r="B609" s="0" t="s">
         <v>755</v>
       </c>
+      <c r="C609" s="0" t="n">
+        <v>42.7661018</v>
+      </c>
+      <c r="D609" s="0" t="n">
+        <v>25.2837334</v>
+      </c>
       <c r="E609" s="0" t="s">
         <v>7</v>
       </c>
@@ -17827,6 +18643,12 @@
       <c r="B610" s="0" t="s">
         <v>578</v>
       </c>
+      <c r="C610" s="0" t="n">
+        <v>46.7881012</v>
+      </c>
+      <c r="D610" s="0" t="n">
+        <v>23.6242008</v>
+      </c>
       <c r="E610" s="0" t="s">
         <v>10</v>
       </c>
@@ -17838,6 +18660,12 @@
       <c r="B611" s="0" t="s">
         <v>758</v>
       </c>
+      <c r="C611" s="0" t="n">
+        <v>41.6004562</v>
+      </c>
+      <c r="D611" s="0" t="n">
+        <v>21.7008953</v>
+      </c>
       <c r="E611" s="0" t="s">
         <v>10</v>
       </c>
@@ -17849,6 +18677,12 @@
       <c r="B612" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C612" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D612" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E612" s="0" t="s">
         <v>7</v>
       </c>
@@ -17860,6 +18694,12 @@
       <c r="B613" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C613" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D613" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E613" s="0" t="s">
         <v>24</v>
       </c>
@@ -17871,6 +18711,12 @@
       <c r="B614" s="0" t="s">
         <v>201</v>
       </c>
+      <c r="C614" s="0" t="n">
+        <v>46.6372795</v>
+      </c>
+      <c r="D614" s="0" t="n">
+        <v>2.3382621</v>
+      </c>
       <c r="E614" s="0" t="s">
         <v>10</v>
       </c>
@@ -17882,6 +18728,12 @@
       <c r="B615" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C615" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D615" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E615" s="0" t="s">
         <v>13</v>
       </c>
@@ -17893,6 +18745,12 @@
       <c r="B616" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C616" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D616" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E616" s="0" t="s">
         <v>13</v>
       </c>
@@ -17904,6 +18762,12 @@
       <c r="B617" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C617" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D617" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E617" s="0" t="s">
         <v>24</v>
       </c>
@@ -17915,6 +18779,12 @@
       <c r="B618" s="0" t="s">
         <v>182</v>
       </c>
+      <c r="C618" s="0" t="n">
+        <v>33.8332481</v>
+      </c>
+      <c r="D618" s="0" t="n">
+        <v>66.0252838</v>
+      </c>
       <c r="E618" s="0" t="s">
         <v>10</v>
       </c>
@@ -17926,6 +18796,12 @@
       <c r="B619" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C619" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D619" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E619" s="0" t="s">
         <v>7</v>
       </c>
@@ -17937,6 +18813,12 @@
       <c r="B620" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="C620" s="0" t="n">
+        <v>20.330143</v>
+      </c>
+      <c r="D620" s="0" t="n">
+        <v>96.5218201</v>
+      </c>
       <c r="E620" s="0" t="s">
         <v>10</v>
       </c>
@@ -17948,6 +18830,12 @@
       <c r="B621" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C621" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D621" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E621" s="0" t="s">
         <v>7</v>
       </c>
@@ -17959,6 +18847,12 @@
       <c r="B622" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="C622" s="0" t="n">
+        <v>36.5530853</v>
+      </c>
+      <c r="D622" s="0" t="n">
+        <v>103.9754333</v>
+      </c>
       <c r="E622" s="0" t="s">
         <v>10</v>
       </c>
@@ -17970,6 +18864,12 @@
       <c r="B623" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C623" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D623" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E623" s="0" t="s">
         <v>13</v>
       </c>
@@ -17981,6 +18881,12 @@
       <c r="B624" s="0" t="s">
         <v>190</v>
       </c>
+      <c r="C624" s="0" t="n">
+        <v>-9.5481129</v>
+      </c>
+      <c r="D624" s="0" t="n">
+        <v>160.0193024</v>
+      </c>
       <c r="E624" s="0" t="s">
         <v>24</v>
       </c>
@@ -17992,6 +18898,12 @@
       <c r="B625" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C625" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D625" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E625" s="0" t="s">
         <v>10</v>
       </c>
@@ -18003,6 +18915,12 @@
       <c r="B626" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C626" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D626" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E626" s="0" t="s">
         <v>24</v>
       </c>
@@ -18014,6 +18932,12 @@
       <c r="B627" s="0" t="s">
         <v>775</v>
       </c>
+      <c r="C627" s="0" t="n">
+        <v>17.2252922</v>
+      </c>
+      <c r="D627" s="0" t="n">
+        <v>-88.6697388</v>
+      </c>
       <c r="E627" s="0" t="s">
         <v>24</v>
       </c>
@@ -18025,6 +18949,12 @@
       <c r="B628" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="C628" s="0" t="n">
+        <v>15.6705656</v>
+      </c>
+      <c r="D628" s="0" t="n">
+        <v>-90.3486557</v>
+      </c>
       <c r="E628" s="0" t="s">
         <v>24</v>
       </c>
@@ -18036,6 +18966,12 @@
       <c r="B629" s="0" t="s">
         <v>308</v>
       </c>
+      <c r="C629" s="0" t="n">
+        <v>14.9750328</v>
+      </c>
+      <c r="D629" s="0" t="n">
+        <v>-86.2647705</v>
+      </c>
       <c r="E629" s="0" t="s">
         <v>24</v>
       </c>
@@ -18047,6 +18983,12 @@
       <c r="B630" s="0" t="s">
         <v>779</v>
       </c>
+      <c r="C630" s="0" t="n">
+        <v>12.9037733</v>
+      </c>
+      <c r="D630" s="0" t="n">
+        <v>-84.9218216</v>
+      </c>
       <c r="E630" s="0" t="s">
         <v>7</v>
       </c>
@@ -18058,6 +19000,12 @@
       <c r="B631" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C631" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D631" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E631" s="0" t="s">
         <v>10</v>
       </c>
@@ -18069,6 +19017,12 @@
       <c r="B632" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C632" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D632" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E632" s="0" t="s">
         <v>13</v>
       </c>
@@ -18080,6 +19034,12 @@
       <c r="B633" s="0" t="s">
         <v>291</v>
       </c>
+      <c r="C633" s="0" t="n">
+        <v>46.6372795</v>
+      </c>
+      <c r="D633" s="0" t="n">
+        <v>2.3382621</v>
+      </c>
       <c r="E633" s="0" t="s">
         <v>13</v>
       </c>
@@ -18091,6 +19051,12 @@
       <c r="B634" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C634" s="0" t="n">
+        <v>8.6267033</v>
+      </c>
+      <c r="D634" s="0" t="n">
+        <v>39.6375542</v>
+      </c>
       <c r="E634" s="0" t="s">
         <v>13</v>
       </c>
@@ -18102,6 +19068,12 @@
       <c r="B635" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C635" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D635" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E635" s="0" t="s">
         <v>24</v>
       </c>
@@ -18113,6 +19085,12 @@
       <c r="B636" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C636" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D636" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E636" s="0" t="s">
         <v>24</v>
       </c>
@@ -18124,6 +19102,12 @@
       <c r="B637" s="0" t="s">
         <v>787</v>
       </c>
+      <c r="C637" s="0" t="n">
+        <v>33.8332481</v>
+      </c>
+      <c r="D637" s="0" t="n">
+        <v>66.0252838</v>
+      </c>
       <c r="E637" s="0" t="s">
         <v>13</v>
       </c>
@@ -18135,6 +19119,12 @@
       <c r="B638" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="C638" s="0" t="n">
+        <v>36.5530853</v>
+      </c>
+      <c r="D638" s="0" t="n">
+        <v>103.9754333</v>
+      </c>
       <c r="E638" s="0" t="s">
         <v>13</v>
       </c>
@@ -18146,6 +19136,12 @@
       <c r="B639" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="C639" s="0" t="n">
+        <v>32.5007782</v>
+      </c>
+      <c r="D639" s="0" t="n">
+        <v>54.2942009</v>
+      </c>
       <c r="E639" s="0" t="s">
         <v>13</v>
       </c>
@@ -18157,6 +19153,12 @@
       <c r="B640" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C640" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D640" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E640" s="0" t="s">
         <v>24</v>
       </c>
@@ -18168,6 +19170,12 @@
       <c r="B641" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C641" s="0" t="n">
+        <v>9.5595055</v>
+      </c>
+      <c r="D641" s="0" t="n">
+        <v>8.0778809</v>
+      </c>
       <c r="E641" s="0" t="s">
         <v>10</v>
       </c>
@@ -18179,6 +19187,12 @@
       <c r="B642" s="0" t="s">
         <v>345</v>
       </c>
+      <c r="C642" s="0" t="n">
+        <v>6.5741229</v>
+      </c>
+      <c r="D642" s="0" t="n">
+        <v>20.4869232</v>
+      </c>
       <c r="E642" s="0" t="s">
         <v>7</v>
       </c>
@@ -18190,6 +19204,12 @@
       <c r="B643" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="C643" s="0" t="n">
+        <v>9.5595055</v>
+      </c>
+      <c r="D643" s="0" t="n">
+        <v>8.0778809</v>
+      </c>
       <c r="E643" s="0" t="s">
         <v>24</v>
       </c>
@@ -18201,6 +19221,12 @@
       <c r="B644" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C644" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D644" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E644" s="0" t="s">
         <v>10</v>
       </c>
@@ -18212,6 +19238,12 @@
       <c r="B645" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="C645" s="0" t="n">
+        <v>27.2360973</v>
+      </c>
+      <c r="D645" s="0" t="n">
+        <v>18.0435562</v>
+      </c>
       <c r="E645" s="0" t="s">
         <v>24</v>
       </c>
@@ -18223,6 +19255,12 @@
       <c r="B646" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="C646" s="0" t="n">
+        <v>28.2591381</v>
+      </c>
+      <c r="D646" s="0" t="n">
+        <v>83.9441605</v>
+      </c>
       <c r="E646" s="0" t="s">
         <v>24</v>
       </c>
@@ -18234,6 +19272,12 @@
       <c r="B647" s="0" t="s">
         <v>736</v>
       </c>
+      <c r="C647" s="0" t="n">
+        <v>29.1405907</v>
+      </c>
+      <c r="D647" s="0" t="n">
+        <v>-8.9533882</v>
+      </c>
       <c r="E647" s="0" t="s">
         <v>7</v>
       </c>
@@ -18245,6 +19289,12 @@
       <c r="B648" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="C648" s="0" t="n">
+        <v>62.8329086</v>
+      </c>
+      <c r="D648" s="0" t="n">
+        <v>-95.9133224</v>
+      </c>
       <c r="E648" s="0" t="s">
         <v>10</v>
       </c>
@@ -18256,6 +19306,12 @@
       <c r="B649" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C649" s="0" t="n">
+        <v>63.1251869</v>
+      </c>
+      <c r="D649" s="0" t="n">
+        <v>103.7539825</v>
+      </c>
       <c r="E649" s="0" t="s">
         <v>13</v>
       </c>
@@ -18267,6 +19323,12 @@
       <c r="B650" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C650" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D650" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E650" s="0" t="s">
         <v>24</v>
       </c>
@@ -18278,6 +19340,12 @@
       <c r="B651" s="0" t="s">
         <v>399</v>
       </c>
+      <c r="C651" s="0" t="n">
+        <v>14.4845819</v>
+      </c>
+      <c r="D651" s="0" t="n">
+        <v>100.8519135</v>
+      </c>
       <c r="E651" s="0" t="s">
         <v>10</v>
       </c>
@@ -18289,6 +19357,12 @@
       <c r="B652" s="0" t="s">
         <v>352</v>
       </c>
+      <c r="C652" s="0" t="n">
+        <v>27.4168797</v>
+      </c>
+      <c r="D652" s="0" t="n">
+        <v>90.434761</v>
+      </c>
       <c r="E652" s="0" t="s">
         <v>24</v>
       </c>
@@ -18300,6 +19374,12 @@
       <c r="B653" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="C653" s="0" t="n">
+        <v>-25.5852413</v>
+      </c>
+      <c r="D653" s="0" t="n">
+        <v>134.5041199</v>
+      </c>
       <c r="E653" s="0" t="s">
         <v>10</v>
       </c>
@@ -18311,6 +19391,12 @@
       <c r="B654" s="0" t="s">
         <v>98</v>
       </c>
+      <c r="C654" s="0" t="n">
+        <v>-1.248089</v>
+      </c>
+      <c r="D654" s="0" t="n">
+        <v>115.4189987</v>
+      </c>
       <c r="E654" s="0" t="s">
         <v>13</v>
       </c>
@@ -18322,6 +19408,12 @@
       <c r="B655" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C655" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D655" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E655" s="0" t="s">
         <v>10</v>
       </c>
@@ -18333,6 +19425,12 @@
       <c r="B656" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C656" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D656" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E656" s="0" t="s">
         <v>13</v>
       </c>
@@ -18344,6 +19442,12 @@
       <c r="B657" s="0" t="s">
         <v>808</v>
       </c>
+      <c r="C657" s="0" t="n">
+        <v>46.1202393</v>
+      </c>
+      <c r="D657" s="0" t="n">
+        <v>14.8206644</v>
+      </c>
       <c r="E657" s="0" t="s">
         <v>7</v>
       </c>
@@ -18355,6 +19459,12 @@
       <c r="B658" s="0" t="s">
         <v>329</v>
       </c>
+      <c r="C658" s="0" t="n">
+        <v>15.3676529</v>
+      </c>
+      <c r="D658" s="0" t="n">
+        <v>18.6675816</v>
+      </c>
       <c r="E658" s="0" t="s">
         <v>7</v>
       </c>
@@ -18366,6 +19476,12 @@
       <c r="B659" s="0" t="s">
         <v>288</v>
       </c>
+      <c r="C659" s="0" t="n">
+        <v>29.9232197</v>
+      </c>
+      <c r="D659" s="0" t="n">
+        <v>69.3577423</v>
+      </c>
       <c r="E659" s="0" t="s">
         <v>10</v>
       </c>
@@ -18377,6 +19493,12 @@
       <c r="B660" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C660" s="0" t="n">
+        <v>-6.8891602</v>
+      </c>
+      <c r="D660" s="0" t="n">
+        <v>146.214447</v>
+      </c>
       <c r="E660" s="0" t="s">
         <v>24</v>
       </c>
@@ -18388,6 +19510,12 @@
       <c r="B661" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C661" s="0" t="n">
+        <v>23.4060116</v>
+      </c>
+      <c r="D661" s="0" t="n">
+        <v>79.4580917</v>
+      </c>
       <c r="E661" s="0" t="s">
         <v>7</v>
       </c>
@@ -18399,6 +19527,12 @@
       <c r="B662" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="C662" s="0" t="n">
+        <v>36.5530853</v>
+      </c>
+      <c r="D662" s="0" t="n">
+        <v>103.9754333</v>
+      </c>
       <c r="E662" s="0" t="s">
         <v>7</v>
       </c>
@@ -18410,6 +19544,12 @@
       <c r="B663" s="0" t="s">
         <v>238</v>
       </c>
+      <c r="C663" s="0" t="n">
+        <v>16.9404297</v>
+      </c>
+      <c r="D663" s="0" t="n">
+        <v>106.8164291</v>
+      </c>
       <c r="E663" s="0" t="s">
         <v>7</v>
       </c>
@@ -18421,6 +19561,12 @@
       <c r="B664" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C664" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D664" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E664" s="0" t="s">
         <v>10</v>
       </c>
@@ -18432,6 +19578,12 @@
       <c r="B665" s="0" t="s">
         <v>94</v>
       </c>
+      <c r="C665" s="0" t="n">
+        <v>42.7669792</v>
+      </c>
+      <c r="D665" s="0" t="n">
+        <v>12.4938231</v>
+      </c>
       <c r="E665" s="0" t="s">
         <v>10</v>
       </c>
@@ -18443,6 +19595,12 @@
       <c r="B666" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="C666" s="0" t="n">
+        <v>39.4432564</v>
+      </c>
+      <c r="D666" s="0" t="n">
+        <v>-98.9573364</v>
+      </c>
       <c r="E666" s="0" t="s">
         <v>7</v>
       </c>
@@ -18454,6 +19612,12 @@
       <c r="B667" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C667" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D667" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E667" s="0" t="s">
         <v>24</v>
       </c>
@@ -18465,6 +19629,12 @@
       <c r="B668" s="0" t="s">
         <v>54</v>
       </c>
+      <c r="C668" s="0" t="n">
+        <v>-10.8104525</v>
+      </c>
+      <c r="D668" s="0" t="n">
+        <v>-52.9731178</v>
+      </c>
       <c r="E668" s="0" t="s">
         <v>24</v>
       </c>
@@ -18476,6 +19646,12 @@
       <c r="B669" s="0" t="s">
         <v>586</v>
       </c>
+      <c r="C669" s="0" t="n">
+        <v>7.6653891</v>
+      </c>
+      <c r="D669" s="0" t="n">
+        <v>-66.1454163</v>
+      </c>
       <c r="E669" s="0" t="s">
         <v>24</v>
       </c>
@@ -18487,6 +19663,12 @@
       <c r="B670" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C670" s="0" t="n">
+        <v>3.997607</v>
+      </c>
+      <c r="D670" s="0" t="n">
+        <v>-73.2779694</v>
+      </c>
       <c r="E670" s="0" t="s">
         <v>13</v>
       </c>
@@ -18498,6 +19680,12 @@
       <c r="B671" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="C671" s="0" t="n">
+        <v>-23.2402897</v>
+      </c>
+      <c r="D671" s="0" t="n">
+        <v>-58.3951721</v>
+      </c>
       <c r="E671" s="0" t="s">
         <v>7</v>
       </c>
@@ -18508,6 +19696,12 @@
       </c>
       <c r="B672" s="0" t="s">
         <v>824</v>
+      </c>
+      <c r="C672" s="0" t="n">
+        <v>-31.39323</v>
+      </c>
+      <c r="D672" s="0" t="n">
+        <v>-58.00732</v>
       </c>
       <c r="E672" s="0" t="s">
         <v>24</v>
